--- a/第1阶段--文档管理/Group4-需求式样书.xlsx
+++ b/第1阶段--文档管理/Group4-需求式样书.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\各位文件\钉钉\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12570"/>
+    <workbookView windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="6" r:id="rId1"/>
@@ -143,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="179">
   <si>
     <t>项目名称</t>
   </si>
@@ -191,254 +186,348 @@
   </si>
   <si>
     <t>V0.1</t>
-  </si>
-  <si>
-    <t>车辆信息主界面</t>
-  </si>
-  <si>
-    <t>曾旭</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>V</t>
+      <t>车辆信息主界面</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>0.2</t>
+      <t>曾旭</t>
     </r>
   </si>
   <si>
-    <t>简单登陆注册界面</t>
-  </si>
-  <si>
-    <t>刘飞宇</t>
+    <t>V0.2</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>V</t>
+      <t>简单登陆注册界面</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>0.3</t>
+      <t>刘飞宇</t>
     </r>
   </si>
   <si>
-    <t>实现导航</t>
-  </si>
-  <si>
-    <t>王浩琰</t>
+    <t>V0.3</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>V</t>
+      <t>实现导航</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>0.4</t>
+      <t>王浩琰</t>
     </r>
   </si>
   <si>
-    <t>简单音乐播放</t>
-  </si>
-  <si>
-    <t>李薇</t>
+    <t>V0.4</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>V</t>
+      <t>简单音乐播放</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>0.5</t>
+      <t>李薇</t>
     </r>
   </si>
   <si>
-    <t>发现界面创建</t>
-  </si>
-  <si>
-    <t>许家豪</t>
+    <t>V0.5</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>V</t>
+      <t>发现界面创建</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>0.6</t>
+      <t>许家豪</t>
     </r>
   </si>
   <si>
-    <t>显示用户头像，主界面实现位置信息显示</t>
-  </si>
-  <si>
-    <t>刘飞宇、曾旭</t>
+    <t>V0.6</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>V</t>
+      <t>显示用户头像，主界面实现位置信息显示</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>0.7</t>
+      <t>刘飞宇、曾旭</t>
     </r>
   </si>
   <si>
-    <t>实现音乐列表</t>
+    <t>V0.7</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>V</t>
+      <t>实现音乐列表</t>
     </r>
+  </si>
+  <si>
+    <t>V0.8</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>0.8</t>
+      <t>实现采集行驶记录</t>
     </r>
   </si>
   <si>
-    <t>实现采集行驶记录</t>
-  </si>
-  <si>
     <t>v0.8.1</t>
   </si>
   <si>
-    <t>实现采集车辆停止位置</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现采集车辆停止位置</t>
+    </r>
   </si>
   <si>
     <t>v0.8.2</t>
   </si>
   <si>
-    <t>实现用户到车辆停止位置的导航</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现用户到车辆停止位置的导航</t>
+    </r>
   </si>
   <si>
     <t>v0.8.3</t>
   </si>
   <si>
-    <t>车辆信息采集，显示</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车辆信息采集，显示</t>
+    </r>
   </si>
   <si>
     <t>v0.8.4</t>
   </si>
   <si>
-    <t>远程对车辆车门的遥控解锁</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程对车辆车门的遥控解锁</t>
+    </r>
   </si>
   <si>
     <t>v0.8.5</t>
   </si>
   <si>
-    <t>发现界面的优化已经浏览信息窗口的优化</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发现界面的优化已经浏览信息窗口的优化</t>
+    </r>
   </si>
   <si>
     <t>v0.8.6</t>
   </si>
   <si>
-    <t>添加对音乐的收藏和取消收藏，音乐播放可实现多种列表循环</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加对音乐的收藏和取消收藏，音乐播放可实现多种列表循环</t>
+    </r>
   </si>
   <si>
     <t>v0.8.7</t>
   </si>
   <si>
-    <t>登陆注册界面的全新优化，注册时可添加更加具体的个人信息</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登陆注册界面的全新优化，注册时可添加更加具体的个人信息</t>
+    </r>
   </si>
   <si>
     <t>v0.8.8</t>
   </si>
   <si>
-    <t>初版完成</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初版完成</t>
+    </r>
+  </si>
+  <si>
+    <t>v0.8.9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小组评审修改</t>
+    </r>
   </si>
   <si>
     <t>v0.9</t>
   </si>
   <si>
-    <t>内容评审修改</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部评审修改</t>
+    </r>
   </si>
   <si>
     <t>v0.9.1</t>
   </si>
   <si>
-    <t>外部评审修改</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外部评审修改</t>
+    </r>
   </si>
   <si>
     <t>v1.0</t>
   </si>
   <si>
-    <t>正式版</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正式版</t>
+    </r>
   </si>
   <si>
     <t>功能需求</t>
@@ -456,13 +545,13 @@
     <t>辅助说明</t>
   </si>
   <si>
-    <t>登陆、注册界面-01</t>
+    <t>登陆、注册界面-01-01</t>
   </si>
   <si>
     <t>登陆</t>
   </si>
   <si>
-    <t>账号密码的输入，数据库查询，增加按钮确认和取消</t>
+    <t>账号密码的输入，数据库查询，增加按钮确认（进入系统）、取消（退出app）、注册（注册账号）</t>
   </si>
   <si>
     <t>登陆、注册界面-01-02</t>
@@ -471,7 +560,7 @@
     <t>注册</t>
   </si>
   <si>
-    <t>录入用户的姓名，性别，地区---录入车子的型号</t>
+    <t>录入用户的账号，昵称，性别，地区，可选择录入我的车辆</t>
   </si>
   <si>
     <t>登陆、注册界面-01-03</t>
@@ -480,10 +569,19 @@
     <t>个人信息页面</t>
   </si>
   <si>
-    <t>显示头像，姓名，性别等，在该页面进行个人信息修改</t>
-  </si>
-  <si>
-    <t>主界面-01</t>
+    <t>显示头像，昵称，性别，地区，个人信息修改</t>
+  </si>
+  <si>
+    <t>登陆、注册界面-01-04</t>
+  </si>
+  <si>
+    <t>记住账号密码</t>
+  </si>
+  <si>
+    <t>实现打开APP的时候免登录，需要在设置页面添加退出登录按钮</t>
+  </si>
+  <si>
+    <t>主界面-02-01</t>
   </si>
   <si>
     <t>底部菜单栏</t>
@@ -492,7 +590,7 @@
     <t>分别显示账户信息、音乐播放器、导航、发现、车辆信息主控界面、设置</t>
   </si>
   <si>
-    <t>主界面-02</t>
+    <t>主界面-02-02</t>
   </si>
   <si>
     <t>音乐、导航、发现、账户信息界面</t>
@@ -501,7 +599,7 @@
     <t>合并其他成员的界面以及代码信息，实现这几个界面的功能</t>
   </si>
   <si>
-    <t>主界面-03</t>
+    <t>主界面-02-03</t>
   </si>
   <si>
     <t>车辆信息主控界面</t>
@@ -510,27 +608,27 @@
     <t>登陆以后，显示车辆信息界面。在与车机端连接的情况下，显示车辆的具体情况，包括：汽车车门，车窗状态、行驶过程中车辆的速度信息等。可以简单控制汽车车门的上锁和解锁。显示车辆停止位置显示</t>
   </si>
   <si>
-    <t>主界面-04</t>
+    <t>主界面-02-04</t>
   </si>
   <si>
     <t>设置界面</t>
   </si>
   <si>
-    <t>蓝牙开关界面，wifi开关界面，声音调节界面</t>
-  </si>
-  <si>
-    <t>导航-02</t>
+    <t>蓝牙开关界面，wifi开关界面，声音调节界面，退出登录</t>
+  </si>
+  <si>
+    <t>导航-03-01</t>
   </si>
   <si>
     <t>mapview</t>
   </si>
   <si>
-    <t>1.定位自己位
+    <t>1.定位自己位置
 2.置显示车辆所在位置
 3.显示距离车的距离</t>
   </si>
   <si>
-    <t>导航-02-02</t>
+    <t>导航-03-02</t>
   </si>
   <si>
     <t>导航</t>
@@ -539,16 +637,17 @@
     <t>导航自己现在位置到车所在位置</t>
   </si>
   <si>
-    <t>导航-02-03</t>
+    <t>导航-03-03</t>
   </si>
   <si>
     <t>行驶记录</t>
   </si>
   <si>
-    <t>显示车辆行驶路线及行驶路程</t>
-  </si>
-  <si>
-    <t>音乐播放-03</t>
+    <t>1、列表显示行驶总路程、行驶时长及平局速度等
+2、单击某一次行程可查看具体行驶路线</t>
+  </si>
+  <si>
+    <t>音乐播放-04-01</t>
   </si>
   <si>
     <t>开始播放</t>
@@ -557,7 +656,7 @@
     <t>点击播放按钮，进行音乐播放，切换界面后可以后台播放运行</t>
   </si>
   <si>
-    <t>音乐播放-03-02</t>
+    <t>音乐播放-04-02</t>
   </si>
   <si>
     <t>暂停播放</t>
@@ -566,7 +665,7 @@
     <t>点击暂停按钮，暂停音乐播放</t>
   </si>
   <si>
-    <t>音乐播放-03-03</t>
+    <t>音乐播放-04-03</t>
   </si>
   <si>
     <t>播放模式-列表循环</t>
@@ -575,7 +674,7 @@
     <t>点击切换播放模式到列表循环，列表循环播放音乐</t>
   </si>
   <si>
-    <t>音乐播放-03-04</t>
+    <t>音乐播放-04-04</t>
   </si>
   <si>
     <t>播放模式-单曲循环</t>
@@ -584,7 +683,7 @@
     <t>点击切换播放模式到单曲循环，单曲循环播放音乐</t>
   </si>
   <si>
-    <t>音乐播放-03-05</t>
+    <t>音乐播放-04-05</t>
   </si>
   <si>
     <t>播放模式-随机播放</t>
@@ -593,34 +692,43 @@
     <t>点击切换播放模式到随机播放，随机播放音乐</t>
   </si>
   <si>
-    <t>音乐播放-03-06</t>
+    <t>音乐播放-04-06</t>
   </si>
   <si>
     <t>音乐列表</t>
   </si>
   <si>
-    <t>显示音乐播放列表，点击列表进行音乐播放</t>
-  </si>
-  <si>
-    <t>音乐播放-03-07</t>
+    <t>显示音乐播放列表，点击列表进行音乐播放，可以与车机端互通数据</t>
+  </si>
+  <si>
+    <t>音乐播放-04-07</t>
   </si>
   <si>
     <t>音乐收藏-加入收藏</t>
   </si>
   <si>
-    <t>点击加入音乐收藏</t>
-  </si>
-  <si>
-    <t>音乐播放-03-08</t>
+    <t>点击加入音乐收藏，与车机端互通数据</t>
+  </si>
+  <si>
+    <t>音乐播放-04-08</t>
   </si>
   <si>
     <t>音乐收藏-取消收藏</t>
   </si>
   <si>
-    <t>点击取消音乐收藏</t>
-  </si>
-  <si>
-    <t>浏览器、信息查询-01</t>
+    <t>点击取消音乐收藏，与车机端互通数据</t>
+  </si>
+  <si>
+    <t>音乐播放-04-09</t>
+  </si>
+  <si>
+    <t>蓝牙音乐</t>
+  </si>
+  <si>
+    <t>与车机端连接，在车机端播放音乐</t>
+  </si>
+  <si>
+    <t>浏览器、信息查询-05-01</t>
   </si>
   <si>
     <t>查询栏</t>
@@ -629,7 +737,7 @@
     <t>查询智能驾驶助手的信息</t>
   </si>
   <si>
-    <t>浏览器、信息查询-02</t>
+    <t>浏览器、信息查询-05-02</t>
   </si>
   <si>
     <t>标签</t>
@@ -638,7 +746,7 @@
     <t>智能驾驶助手的详细内容</t>
   </si>
   <si>
-    <t>浏览器、信息查询-03</t>
+    <t>浏览器、信息查询-05-03</t>
   </si>
   <si>
     <t>视频</t>
@@ -647,7 +755,7 @@
     <t>展示各种各样的汽车模型以及详细介绍</t>
   </si>
   <si>
-    <t>浏览器、信息查询-04</t>
+    <t>浏览器、信息查询-05-04</t>
   </si>
   <si>
     <t>最新看点</t>
@@ -709,7 +817,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>对系统可靠性的需求应在此处说明。以下是一些建议：
@@ -724,7 +831,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -739,7 +845,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>详细描述与系统安全性、完整性或与登录到该系统的使用人员的隐私相关的需求，这些问题会影响到软件系统的使用以及创建或使用的数据的保护。定义用户身份确认或授权需求。明确产品必须满足达到安全性或保密性策略。
@@ -749,7 +854,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -788,7 +892,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>说明此文档的范围、它的相关项目，以及受到此文档影响的任何其他事物</t>
@@ -797,7 +900,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -824,7 +926,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>描述项目为了构建目标系统可能形成或操作的方式</t>
@@ -833,7 +934,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -864,16 +964,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="10">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\)"/>
     <numFmt numFmtId="179" formatCode="mmm"/>
-    <numFmt numFmtId="181" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="56">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -895,7 +999,6 @@
       <i/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -909,7 +1012,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -917,13 +1019,11 @@
       <i/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -934,50 +1034,33 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="幼圆"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="36"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -995,7 +1078,6 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1007,19 +1089,17 @@
       <b/>
       <sz val="10.5"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1027,9 +1107,206 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="黑体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="仿宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="楷体_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1040,77 +1317,161 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="仿宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1120,12 +1481,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1190,6 +1599,93 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1209,47 +1705,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="36" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="38" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="46" fillId="25" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,7 +1937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1301,50 +1952,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1358,70 +2006,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="21" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="21" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="21" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1430,14 +2075,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1448,11 +2099,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1460,87 +2123,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="24">
-    <cellStyle name="Calc Currency (0)" xfId="20"/>
-    <cellStyle name="Date" xfId="22"/>
+  <cellStyles count="72">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="Grey" xfId="1"/>
-    <cellStyle name="Header1" xfId="15"/>
-    <cellStyle name="Header2" xfId="14"/>
     <cellStyle name="Input [yellow]" xfId="2"/>
-    <cellStyle name="New Times Roman" xfId="13"/>
-    <cellStyle name="Normal - Style1" xfId="17"/>
+    <cellStyle name="段落标题1" xfId="3"/>
     <cellStyle name="Normal_#10-Headcount" xfId="4"/>
     <cellStyle name="Percent [2]" xfId="5"/>
-    <cellStyle name="標準_(D)日程計画" xfId="7"/>
-    <cellStyle name="表示済みのハイパーリンク_02_1st_2ndOTP対応機能一覧_一応完成版" xfId="18"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_封页" xfId="21"/>
-    <cellStyle name="段落标题1" xfId="3"/>
-    <cellStyle name="段落标题2" xfId="8"/>
-    <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="23"/>
-    <cellStyle name="桁区切り_(D)日程計画" xfId="9"/>
-    <cellStyle name="普通_laroux" xfId="10"/>
-    <cellStyle name="千位[0]_laroux" xfId="11"/>
-    <cellStyle name="千位_laroux" xfId="19"/>
-    <cellStyle name="通貨 [0.00]_(D)日程計画" xfId="12"/>
-    <cellStyle name="通貨_(D)日程計画" xfId="16"/>
-    <cellStyle name="样式 1" xfId="6"/>
+    <cellStyle name="標準_(D)日程計画" xfId="6"/>
+    <cellStyle name="段落标题2" xfId="7"/>
+    <cellStyle name="桁区切り_(D)日程計画" xfId="8"/>
+    <cellStyle name="普通_laroux" xfId="9"/>
+    <cellStyle name="千位[0]_laroux" xfId="10"/>
+    <cellStyle name="通貨 [0.00]_(D)日程計画" xfId="11"/>
+    <cellStyle name="样式 1" xfId="12"/>
+    <cellStyle name="New Times Roman" xfId="13"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="14" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="15" builtinId="42"/>
+    <cellStyle name="Header2" xfId="16"/>
+    <cellStyle name="强调文字颜色 4" xfId="17" builtinId="41"/>
+    <cellStyle name="输入" xfId="18" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="19" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="20" builtinId="38"/>
+    <cellStyle name="Header1" xfId="21"/>
+    <cellStyle name="通貨_(D)日程計画" xfId="22"/>
+    <cellStyle name="货币" xfId="23" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="24" builtinId="37"/>
+    <cellStyle name="Normal - Style1" xfId="25"/>
+    <cellStyle name="百分比" xfId="26" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="27" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="28" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="30" builtinId="32"/>
+    <cellStyle name="表示済みのハイパーリンク_02_1st_2ndOTP対応機能一覧_一応完成版" xfId="31"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44"/>
+    <cellStyle name="计算" xfId="33" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="好" xfId="37" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="汇总" xfId="39" builtinId="25"/>
+    <cellStyle name="差" xfId="40" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="41" builtinId="23"/>
+    <cellStyle name="输出" xfId="42" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="43" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="44" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="45" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="46" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="47" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="49" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9"/>
+    <cellStyle name="标题" xfId="51" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="52" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="53" builtinId="11"/>
+    <cellStyle name="千位_laroux" xfId="54"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="55" builtinId="40"/>
+    <cellStyle name="注释" xfId="56" builtinId="10"/>
+    <cellStyle name="Calc Currency (0)" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="58" builtinId="50"/>
+    <cellStyle name="常规_封页" xfId="59"/>
+    <cellStyle name="强调文字颜色 5" xfId="60" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="63" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="64" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="65" builtinId="47"/>
+    <cellStyle name="Date" xfId="66"/>
+    <cellStyle name="标题 3" xfId="67" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="68" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
+    <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="70"/>
+    <cellStyle name="链接单元格" xfId="71" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
@@ -1581,7 +2267,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="文件封面"/>
@@ -1604,7 +2290,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="文件封面"/>
@@ -1629,7 +2315,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
@@ -1670,7 +2356,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="引言"/>
@@ -1691,7 +2377,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="文件封面"/>
@@ -1748,7 +2434,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
@@ -1775,7 +2461,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
@@ -1822,7 +2508,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="表紙"/>
@@ -2150,99 +2836,98 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="7" width="9" style="56"/>
-    <col min="8" max="8" width="15" style="56" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="56"/>
+    <col min="1" max="7" width="9" style="54"/>
+    <col min="8" max="8" width="15" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="57" customFormat="1" ht="22.5">
-      <c r="A1" s="60"/>
-    </row>
-    <row r="2" spans="1:9" s="57" customFormat="1" ht="22.5">
-      <c r="A2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" s="58" customFormat="1" ht="21">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="72"/>
-    </row>
-    <row r="4" spans="1:9" s="58" customFormat="1" ht="23.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-    </row>
-    <row r="5" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A5" s="61"/>
-    </row>
-    <row r="6" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A6" s="61"/>
-    </row>
-    <row r="7" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A7" s="61"/>
-    </row>
-    <row r="8" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A8" s="61"/>
-    </row>
-    <row r="9" spans="1:9" s="57" customFormat="1" ht="18.75" hidden="1">
-      <c r="A9" s="61"/>
-    </row>
-    <row r="10" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A10" s="61"/>
-    </row>
-    <row r="11" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A11" s="61"/>
-    </row>
-    <row r="12" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A12" s="62"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="1:9" s="58" customFormat="1" ht="46.5">
-      <c r="A13" s="77" t="s">
+    <row r="1" s="55" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A1" s="58"/>
+    </row>
+    <row r="2" s="55" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A2" s="58"/>
+    </row>
+    <row r="3" s="56" customFormat="1" ht="21" spans="1:8">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" s="56" customFormat="1" ht="23.25" spans="1:8">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+    </row>
+    <row r="5" s="55" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A5" s="60"/>
+    </row>
+    <row r="6" s="55" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A6" s="60"/>
+    </row>
+    <row r="7" s="55" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A7" s="60"/>
+    </row>
+    <row r="8" s="55" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A8" s="60"/>
+    </row>
+    <row r="9" s="55" customFormat="1" ht="18.75" hidden="1" spans="1:1">
+      <c r="A9" s="60"/>
+    </row>
+    <row r="10" s="55" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A10" s="60"/>
+    </row>
+    <row r="11" s="55" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A11" s="60"/>
+    </row>
+    <row r="12" s="55" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A12" s="61"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" s="56" customFormat="1" ht="46.5" spans="1:8">
+      <c r="A13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-    </row>
-    <row r="14" spans="1:9" s="58" customFormat="1" ht="15.75">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+    </row>
+    <row r="14" s="56" customFormat="1" ht="15.75" spans="1:9">
       <c r="A14" s="63"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -2251,167 +2936,167 @@
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" s="58" customFormat="1" ht="46.5">
-      <c r="A15" s="78" t="s">
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" s="56" customFormat="1" ht="42.75" spans="1:8">
+      <c r="A15" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A16" s="66"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-    </row>
-    <row r="17" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A17" s="67"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" s="57" customFormat="1" ht="22.5">
-      <c r="A18" s="79" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" s="55" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A16" s="67"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" s="55" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A17" s="68"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" s="55" customFormat="1" ht="22.5" spans="1:9">
+      <c r="A18" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A19" s="62"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A20" s="62"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-    </row>
-    <row r="21" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A21" s="62"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A22" s="62"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A23" s="62"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A24" s="62"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A25" s="62"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A26" s="62"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-    </row>
-    <row r="27" spans="1:9" s="57" customFormat="1" ht="18.75">
-      <c r="A27" s="62"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-    </row>
-    <row r="28" spans="1:9" s="58" customFormat="1" ht="22.5">
-      <c r="A28" s="81" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" s="55" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A19" s="61"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" s="55" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A20" s="61"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" s="55" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A21" s="61"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" s="55" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A22" s="61"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" s="55" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A23" s="61"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" s="55" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A24" s="61"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" s="55" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A25" s="61"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" s="55" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A26" s="61"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" s="55" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A27" s="61"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" s="56" customFormat="1" ht="21.75" spans="1:8">
+      <c r="A28" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-    </row>
-    <row r="29" spans="1:9" s="58" customFormat="1" ht="15.75">
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+    </row>
+    <row r="29" s="56" customFormat="1" ht="15.75" spans="1:8">
       <c r="A29" s="63"/>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
@@ -2421,7 +3106,7 @@
       <c r="G29" s="65"/>
       <c r="H29" s="65"/>
     </row>
-    <row r="30" spans="1:9" s="58" customFormat="1" ht="15.75">
+    <row r="30" s="56" customFormat="1" ht="15.75" spans="1:8">
       <c r="A30" s="63"/>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -2431,7 +3116,7 @@
       <c r="G30" s="65"/>
       <c r="H30" s="65"/>
     </row>
-    <row r="31" spans="1:9" s="58" customFormat="1" ht="15.75">
+    <row r="31" s="56" customFormat="1" ht="15.75" spans="1:8">
       <c r="A31" s="63"/>
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
@@ -2441,63 +3126,64 @@
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
     </row>
-    <row r="32" spans="1:9" s="59" customFormat="1">
-      <c r="A32" s="68" t="s">
+    <row r="32" s="57" customFormat="1" spans="1:8">
+      <c r="A32" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="72">
         <v>5</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="68" t="s">
+      <c r="C32" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="69"/>
-      <c r="G32" s="74" t="s">
+      <c r="F32" s="73"/>
+      <c r="G32" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="69"/>
-    </row>
-    <row r="33" spans="1:8" s="59" customFormat="1">
-      <c r="A33" s="68" t="s">
+      <c r="H32" s="73"/>
+    </row>
+    <row r="33" s="57" customFormat="1" spans="1:8">
+      <c r="A33" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="68" t="s">
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-    </row>
-    <row r="34" spans="1:8" s="57" customFormat="1"/>
-    <row r="35" spans="1:8" s="57" customFormat="1"/>
-    <row r="36" spans="1:8" s="57" customFormat="1"/>
-    <row r="37" spans="1:8" s="57" customFormat="1"/>
-    <row r="38" spans="1:8" s="57" customFormat="1"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+    </row>
+    <row r="34" s="55" customFormat="1"/>
+    <row r="35" s="55" customFormat="1"/>
+    <row r="36" s="55" customFormat="1"/>
+    <row r="37" s="55" customFormat="1"/>
+    <row r="38" s="55" customFormat="1"/>
     <row r="55" spans="1:1">
-      <c r="A55" s="70"/>
+      <c r="A55" s="75"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="71"/>
+      <c r="A56" s="76"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="9">
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
   </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -2505,334 +3191,346 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="50.75" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38" t="s">
+    <row r="1" ht="24.75" spans="1:5">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="56"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="56"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="40">
+      <c r="E2" s="54"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:5">
+      <c r="A3" s="39">
         <v>44056</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="56"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="40">
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:5">
+      <c r="A4" s="39">
         <v>44056</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="56"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="40">
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:5">
+      <c r="A5" s="39">
         <v>44056</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="56"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="40">
+      <c r="E5" s="54"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:5">
+      <c r="A6" s="39">
         <v>44056</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="56"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="40">
+      <c r="E6" s="54"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:5">
+      <c r="A7" s="39">
         <v>44056</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="56"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="40">
+      <c r="E7" s="54"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:5">
+      <c r="A8" s="39">
         <v>44056</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="56"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="40">
+      <c r="E8" s="54"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:5">
+      <c r="A9" s="39">
         <v>44056</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="56"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="40">
+      <c r="E9" s="54"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:5">
+      <c r="A10" s="39">
         <v>44056</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="56"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="40">
+      <c r="E10" s="54"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:5">
+      <c r="A11" s="39">
         <v>44056</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="40">
+      <c r="E11" s="54"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:5">
+      <c r="A12" s="39">
         <v>44056</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="56"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="40">
+      <c r="E12" s="54"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:5">
+      <c r="A13" s="39">
         <v>44056</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="56"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="40">
+      <c r="E13" s="54"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:5">
+      <c r="A14" s="39">
         <v>44056</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="56"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="40">
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:5">
+      <c r="A15" s="39">
         <v>44056</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="56"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.5">
-      <c r="A16" s="40">
+      <c r="E15" s="54"/>
+    </row>
+    <row r="16" ht="28.5" spans="1:5">
+      <c r="A16" s="39">
         <v>44056</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="56"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.5">
-      <c r="A17" s="40">
+      <c r="E16" s="54"/>
+    </row>
+    <row r="17" ht="28.5" spans="1:5">
+      <c r="A17" s="39">
         <v>44056</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="56"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="40">
+      <c r="E17" s="54"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:5">
+      <c r="A18" s="39">
         <v>44056</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="56"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="40">
+      <c r="D18" s="43"/>
+      <c r="E18" s="54"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:5">
+      <c r="A19" s="39">
         <v>44056</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="56"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="40">
+      <c r="D19" s="46"/>
+      <c r="E19" s="54"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:5">
+      <c r="A20" s="39">
         <v>44056</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="56"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="40">
+      <c r="D20" s="46"/>
+      <c r="E20" s="54"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
+      <c r="A21" s="39">
         <v>44056</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="40"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="54"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:5">
+      <c r="A22" s="39">
+        <v>44056</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+    </row>
+    <row r="23" ht="15.75" spans="1:5">
+      <c r="A23" s="39"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -2840,345 +3538,368 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1">
+    <row r="1" ht="27" customHeight="1" spans="2:3">
       <c r="B1" s="14"/>
       <c r="C1" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="12" customFormat="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="1" ht="31.5" customHeight="1" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="23" t="s">
+    <row r="4" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A5" s="21" t="s">
+      <c r="B4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:4" s="12" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="B5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" ht="39.75" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A6" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" customHeight="1" outlineLevel="1">
-      <c r="A7" s="21" t="s">
+      <c r="B6" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
+      <c r="A7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" ht="80.25" customHeight="1" outlineLevel="1">
-      <c r="A8" s="21" t="s">
+      <c r="B7" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="C7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A9" s="21" t="s">
+      <c r="B8" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="C8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" ht="80.25" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:4" ht="49.15" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A10" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A11" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" ht="49.15" customHeight="1" spans="1:4">
+      <c r="A11" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A12" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" ht="32.25" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A13" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A14" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="1:4">
+      <c r="A14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A15" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A16" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A16" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A17" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A17" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A18" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A18" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A19" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" ht="31.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A19" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A20" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A20" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:4" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C20" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A22" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="C21" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A22" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A23" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
+      <c r="A23" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
-      <c r="A24" s="22" t="s">
+      <c r="B23" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="C23" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A24" s="21" t="s">
         <v>129</v>
       </c>
+      <c r="B24" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>131</v>
+      </c>
       <c r="D24" s="27"/>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="35" t="s">
+    <row r="25" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A25" s="21" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="35" t="s">
+      <c r="B25" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="35" t="s">
+      <c r="C25" s="22" t="s">
         <v>134</v>
+      </c>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A26" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
@@ -3189,7 +3910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3200,17 +3921,17 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="84.5" customWidth="1"/>
     <col min="3" max="3" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1">
+    <row r="1" ht="28.5" customHeight="1" spans="1:2">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3218,40 +3939,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" outlineLevel="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" outlineLevel="1" spans="1:2">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" outlineLevel="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" outlineLevel="1" spans="1:2">
       <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" outlineLevel="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" outlineLevel="1" spans="1:2">
       <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" outlineLevel="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" outlineLevel="1" spans="1:2">
       <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" outlineLevel="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" outlineLevel="1" spans="1:2">
       <c r="A7" s="10"/>
       <c r="B7" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" outlineLevel="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" outlineLevel="1" spans="1:1">
       <c r="A8" s="10"/>
     </row>
     <row r="9" spans="1:2">
@@ -3259,24 +3980,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="59.25" customHeight="1" outlineLevel="1" collapsed="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" ht="59.25" customHeight="1" outlineLevel="1" collapsed="1" spans="1:2">
       <c r="A10" s="10"/>
       <c r="B10" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" outlineLevel="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" outlineLevel="1" spans="1:2">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:2" outlineLevel="1">
+    <row r="12" outlineLevel="1" spans="1:2">
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:2" outlineLevel="1">
+    <row r="13" outlineLevel="1" spans="1:2">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
     </row>
@@ -3285,24 +4006,24 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="138" customHeight="1" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" ht="138" customHeight="1" outlineLevel="1" spans="1:2">
       <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" outlineLevel="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" outlineLevel="1" spans="1:2">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" outlineLevel="1">
+    <row r="17" outlineLevel="1" spans="1:2">
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" outlineLevel="1">
+    <row r="18" outlineLevel="1" spans="1:2">
       <c r="A18" s="10"/>
       <c r="B18" s="7"/>
     </row>
@@ -3311,24 +4032,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="93.75" customHeight="1" outlineLevel="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" ht="93.75" customHeight="1" outlineLevel="1" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" outlineLevel="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" outlineLevel="1" spans="1:2">
       <c r="A21" s="10"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" outlineLevel="1">
+    <row r="22" outlineLevel="1" spans="1:2">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" outlineLevel="1">
+    <row r="23" outlineLevel="1" spans="1:2">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
     </row>
@@ -3337,18 +4058,18 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" outlineLevel="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" outlineLevel="1" spans="1:2">
       <c r="A25" s="10"/>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" outlineLevel="1">
+    <row r="26" outlineLevel="1" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" outlineLevel="1">
+    <row r="27" outlineLevel="1" spans="1:2">
       <c r="A27" s="10"/>
       <c r="B27" s="7"/>
     </row>
@@ -3357,18 +4078,18 @@
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" outlineLevel="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" outlineLevel="1" spans="1:2">
       <c r="A29" s="10"/>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:2" outlineLevel="1">
+    <row r="30" outlineLevel="1" spans="1:2">
       <c r="A30" s="10"/>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:2" outlineLevel="1">
+    <row r="31" outlineLevel="1" spans="1:2">
       <c r="A31" s="10"/>
       <c r="B31" s="7"/>
     </row>
@@ -3377,18 +4098,18 @@
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" outlineLevel="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" outlineLevel="1" spans="1:2">
       <c r="A33" s="10"/>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="1:2" outlineLevel="1">
+    <row r="34" outlineLevel="1" spans="1:2">
       <c r="A34" s="10"/>
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:2" outlineLevel="1">
+    <row r="35" outlineLevel="1" spans="1:2">
       <c r="A35" s="10"/>
       <c r="B35" s="7"/>
     </row>
@@ -3397,41 +4118,40 @@
         <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" outlineLevel="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" outlineLevel="1" spans="1:2">
       <c r="A37" s="10"/>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:2" outlineLevel="1">
+    <row r="38" outlineLevel="1" spans="1:2">
       <c r="A38" s="10"/>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:2" outlineLevel="1">
+    <row r="39" outlineLevel="1" spans="1:2">
       <c r="A39" s="10"/>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:2" outlineLevel="1"/>
-    <row r="41" spans="1:2" outlineLevel="1"/>
+    <row r="40" outlineLevel="1"/>
+    <row r="41" outlineLevel="1"/>
     <row r="42" spans="1:2">
       <c r="A42" s="10">
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" outlineLevel="1"/>
-    <row r="44" spans="1:2" outlineLevel="1"/>
-    <row r="45" spans="1:2" outlineLevel="1"/>
-    <row r="46" spans="1:2" outlineLevel="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" outlineLevel="1"/>
+    <row r="44" outlineLevel="1"/>
+    <row r="45" outlineLevel="1"/>
+    <row r="46" outlineLevel="1"/>
     <row r="56" spans="2:2">
       <c r="B56" s="11"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
@@ -3442,7 +4162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3452,135 +4172,134 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="70.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" customHeight="1">
+    <row r="1" ht="31.5" customHeight="1" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:2">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="2:2">
       <c r="B5" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="16.5" customHeight="1">
+    <row r="7" ht="16.5" customHeight="1" spans="2:2">
       <c r="B7" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:2" ht="16.5" customHeight="1">
+    <row r="9" ht="16.5" customHeight="1" spans="2:2">
       <c r="B9" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1">
+    <row r="11" ht="16.5" customHeight="1" spans="2:2">
       <c r="B11" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1">
+    <row r="13" ht="16.5" customHeight="1" spans="2:2">
       <c r="B13" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" ht="16.5" customHeight="1">
+    <row r="15" ht="16.5" customHeight="1" spans="2:2">
       <c r="B15" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1">
+    <row r="17" ht="16.5" customHeight="1" spans="2:2">
       <c r="B17" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1">
+    <row r="19" ht="16.5" customHeight="1" spans="2:2">
       <c r="B19" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="2:2">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="2:2">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="2:2">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="2:2">
       <c r="B26" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"幼圆,常规"&amp;9&amp;U&amp;A&amp;R&amp;"幼圆,常规"&amp;9版本：1.0.0-0.0.1  第&amp;P页</oddHeader>
     <oddFooter>&amp;C&amp;"幼圆,常规"&amp;9沈阳东软软件股份有限公司</oddFooter>
@@ -3589,14 +4308,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3608,6 +4320,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -3618,29 +4347,19 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -3658,6 +4377,24 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -3666,26 +4403,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
